--- a/Pos_data_stat/position/top14-part6.xlsx
+++ b/Pos_data_stat/position/top14-part6.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7822</v>
+        <v>7817</v>
       </c>
       <c r="B2" t="n">
         <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>4923</v>
+        <v>4928</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
